--- a/supabase/암장별난이도.xlsx
+++ b/supabase/암장별난이도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\cursor_atp01\climbing_training_app\supabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAF04EA-8BE9-4AAA-9236-A489C87CB5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68203B-48A2-4020-BD74-B5CC848A0749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" xr2:uid="{27C567EA-D11E-46D4-8106-39680DD44E21}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="126">
   <si>
     <t>0fb04995-b7a0-4559-9108-dc79ff407751</t>
   </si>
@@ -394,6 +394,62 @@
   </si>
   <si>
     <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA7CBE2-9DD9-469A-A710-9F8C6951CDB2}">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M72" sqref="J18:M72"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -836,6 +892,7 @@
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2438,7 +2495,7 @@
         <v>73</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" ref="L65:L73" si="3">VLOOKUP(K65,$I$1:$J$13,2,FALSE)</f>
+        <f t="shared" ref="L65:L72" si="3">VLOOKUP(K65,$I$1:$J$13,2,FALSE)</f>
         <v>#ffa500</v>
       </c>
       <c r="M65" t="s">
@@ -2809,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -2826,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>4</v>
       </c>
@@ -2843,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -2860,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -2894,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>4</v>
       </c>
@@ -2927,8 +2984,23 @@
       <c r="F87">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>54</v>
+      </c>
+      <c r="K87" t="s">
+        <v>112</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +3016,20 @@
       <c r="F88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>54</v>
+      </c>
+      <c r="K88" t="s">
+        <v>113</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3048,20 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" t="s">
+        <v>114</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>38</v>
       </c>
@@ -2981,8 +3077,20 @@
       <c r="F90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90" t="s">
+        <v>115</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>38</v>
       </c>
@@ -2998,8 +3106,20 @@
       <c r="F91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91" t="s">
+        <v>116</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -3015,8 +3135,20 @@
       <c r="F92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92" t="s">
+        <v>117</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>38</v>
       </c>
@@ -3032,8 +3164,20 @@
       <c r="F93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93" t="s">
+        <v>118</v>
+      </c>
+      <c r="L93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>38</v>
       </c>
@@ -3049,8 +3193,20 @@
       <c r="F94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94" t="s">
+        <v>119</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>38</v>
       </c>
@@ -3066,8 +3222,20 @@
       <c r="F95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" t="s">
+        <v>120</v>
+      </c>
+      <c r="L95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>38</v>
       </c>
@@ -3083,8 +3251,20 @@
       <c r="F96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" t="s">
+        <v>121</v>
+      </c>
+      <c r="L96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>38</v>
       </c>
@@ -3100,8 +3280,20 @@
       <c r="F97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>50</v>
+      </c>
+      <c r="K97" t="s">
+        <v>122</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>38</v>
       </c>
@@ -3117,8 +3309,20 @@
       <c r="F98">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+      <c r="K98" t="s">
+        <v>123</v>
+      </c>
+      <c r="L98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>38</v>
       </c>
@@ -3134,8 +3338,20 @@
       <c r="F99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99" t="s">
+        <v>124</v>
+      </c>
+      <c r="L99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -3154,8 +3370,20 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100" t="s">
+        <v>125</v>
+      </c>
+      <c r="L100">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>10</v>
       </c>
@@ -3172,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>10</v>
       </c>
@@ -3189,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>10</v>
       </c>
@@ -3240,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>10</v>
       </c>
@@ -3257,7 +3485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>10</v>
       </c>
@@ -3274,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>10</v>
       </c>
@@ -3291,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>10</v>
       </c>
@@ -3325,7 +3553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -3345,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>26</v>
       </c>
